--- a/undefined.xlsx
+++ b/undefined.xlsx
@@ -11,34 +11,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Оперативная обстановка по состоянию на 06:00 05.03.2019</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Дата подачи</t>
-  </si>
-  <si>
-    <t>Инициатор / Заявитель</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Телефон</t>
+    <t>Филиал</t>
+  </si>
+  <si>
+    <t>Отключенное оборудование по сети 35-150 кВ</t>
+  </si>
+  <si>
+    <t>Последствия для потребителей по сети 35-150 кВ</t>
+  </si>
+  <si>
+    <t>Распределительная сеть</t>
+  </si>
+  <si>
+    <t>Последствия для потребителей по распределительной сети</t>
+  </si>
+  <si>
+    <t>Последствия для потребителей суммарно по основной и распределительной сети</t>
+  </si>
+  <si>
+    <t>Задействованные РИСЭ</t>
+  </si>
+  <si>
+    <t>Задействованные силы и средства</t>
+  </si>
+  <si>
+    <t>ЛЭП 110-150 кВ, шт.</t>
+  </si>
+  <si>
+    <t>ЛЭП 35 кВ, шт.</t>
+  </si>
+  <si>
+    <t>ПС 110 -150 кВ, шт.</t>
+  </si>
+  <si>
+    <t>ПС 35 кВ, шт.</t>
+  </si>
+  <si>
+    <t>ТП 6-20 кВ, шт.</t>
+  </si>
+  <si>
+    <t>Население, чел</t>
+  </si>
+  <si>
+    <t>Нагрузка, МВт</t>
+  </si>
+  <si>
+    <t>СЗО, шт</t>
+  </si>
+  <si>
+    <t>ЛЭП 6-20 кВ, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во, шт</t>
+  </si>
+  <si>
+    <t> P∑, кВт</t>
+  </si>
+  <si>
+    <t>Запитано от РИСЭ, чел.</t>
+  </si>
+  <si>
+    <t>Бригад, шт.</t>
+  </si>
+  <si>
+    <t>Человек</t>
+  </si>
+  <si>
+    <t>Ед. техн., шт.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -46,7 +97,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -84,16 +141,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
-    <xf applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" fontId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyAlignment="1">
+    <xf applyFont="1" fontId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -103,59 +159,169 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="30" customHeight="1">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="35" customHeight="1">
+    <row r="3" spans="2:25" ht="35" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
-    <row r="4" ht="35" customHeight="1"/>
+    <row r="4" spans="2:25" ht="35" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>